--- a/Data Input/SILVER Inputs.xlsx
+++ b/Data Input/SILVER Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\TorontoEVs\Data Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\Ontario-EVs\Data Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB5C689-402A-437D-9705-A0FB425703A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869DEE1-87AA-49C4-BA4A-02DA02253CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1485" windowWidth="22095" windowHeight="13890" activeTab="2" xr2:uid="{C3FE4414-514F-4607-999C-5BB7E242280B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C3FE4414-514F-4607-999C-5BB7E242280B}"/>
   </bookViews>
   <sheets>
     <sheet name="VRE Plants" sheetId="2" r:id="rId1"/>
@@ -7309,15 +7309,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC0099-958B-499B-897A-5F148C5112D3}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
@@ -7963,7 +7965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4159FD05-D40C-4EB1-BF2F-0BF81A5CF605}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
